--- a/Out/OPCIONES PARA ICA1A - 1.xlsx
+++ b/Out/OPCIONES PARA ICA1A - 1.xlsx
@@ -479,7 +479,11 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,7 +495,11 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -502,12 +510,12 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -516,14 +524,22 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -531,16 +547,16 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -551,16 +567,16 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -571,23 +587,15 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -595,23 +603,15 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -619,23 +619,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -643,23 +635,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -667,23 +651,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -691,23 +667,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -716,9 +684,17 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -728,9 +704,17 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -740,9 +724,17 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -752,9 +744,17 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -764,9 +764,17 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -776,9 +784,17 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -788,9 +804,17 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -800,9 +824,17 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -875,17 +907,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -895,17 +919,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -915,17 +931,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -935,17 +943,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -1038,9 +1038,17 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -1050,9 +1058,17 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1064,11 +1080,15 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1078,11 +1098,7 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -1094,11 +1110,7 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -1110,11 +1122,7 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -1133,11 +1141,7 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1153,11 +1157,7 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1165,27 +1165,19 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1193,27 +1185,19 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1221,27 +1205,19 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1249,27 +1225,19 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1278,9 +1246,17 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1290,9 +1266,17 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1302,9 +1286,17 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1314,9 +1306,17 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1325,18 +1325,18 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1345,18 +1345,18 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1365,18 +1365,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1385,18 +1385,18 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1624,11 +1624,7 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -1642,11 +1638,15 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1655,18 +1655,18 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1675,18 +1675,18 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1695,11 +1695,7 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA A [LTT1]</t>
@@ -1707,11 +1703,7 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1719,11 +1711,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA A [LTT1]</t>
@@ -1731,11 +1719,7 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1743,23 +1727,19 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>LAB. QUÍMICA [LQU3]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1767,23 +1747,19 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>LAB. QUÍMICA [LQU3]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1791,23 +1767,19 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>LAB. QUÍMICA [LQU3]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1815,23 +1787,19 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>LAB. QUÍMICA [LQU3]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1840,9 +1808,17 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1852,9 +1828,17 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1864,9 +1848,17 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1876,9 +1868,17 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1888,9 +1888,17 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1900,9 +1908,17 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1912,9 +1928,17 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1924,9 +1948,17 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1999,17 +2031,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -2019,17 +2043,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -2039,17 +2055,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -2059,17 +2067,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -2188,11 +2188,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -2202,11 +2198,15 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -2218,11 +2218,15 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -2234,11 +2238,15 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -2250,18 +2258,14 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2270,18 +2274,14 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2289,27 +2289,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU1]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2317,27 +2305,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU1]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2345,27 +2321,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU1]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2373,27 +2337,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU1]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2402,9 +2354,21 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU5]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -2414,9 +2378,21 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU5]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -2426,9 +2402,21 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU5]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -2438,9 +2426,21 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU5]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -2450,9 +2450,17 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -2462,9 +2470,17 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -2474,9 +2490,17 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -2486,9 +2510,17 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -2561,17 +2593,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -2581,17 +2605,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -2601,17 +2617,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -2621,17 +2629,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -2748,11 +2748,7 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -2766,11 +2762,15 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -2782,11 +2782,15 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -2798,11 +2802,15 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2819,11 +2827,7 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2839,11 +2843,7 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2853,25 +2853,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>LAB. QUÍMICA [LQU2]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU1]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2881,25 +2873,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>LAB. QUÍMICA [LQU2]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU1]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2909,25 +2893,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>LAB. QUÍMICA [LQU2]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU1]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2937,25 +2913,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>LAB. QUÍMICA [LQU2]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU1]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2964,9 +2932,17 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -2976,9 +2952,17 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -2988,9 +2972,17 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3000,9 +2992,17 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3012,9 +3012,17 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -3024,9 +3032,17 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -3036,9 +3052,17 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -3048,9 +3072,17 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -3123,17 +3155,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -3143,17 +3167,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -3163,17 +3179,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -3183,17 +3191,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -3286,10 +3286,22 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3298,10 +3310,22 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3310,14 +3334,22 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3328,12 +3360,12 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3341,18 +3373,10 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -3361,18 +3385,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -3381,18 +3397,14 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -3401,18 +3413,14 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -3421,17 +3429,13 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>
@@ -3441,26 +3445,14 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -3469,26 +3461,14 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -3497,26 +3477,14 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -3526,9 +3494,17 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -3538,9 +3514,17 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -3550,9 +3534,17 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3562,9 +3554,17 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3574,9 +3574,17 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -3586,9 +3594,17 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -3598,9 +3614,17 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -3610,9 +3634,17 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -3685,17 +3717,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -3705,17 +3729,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -3725,17 +3741,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -3745,17 +3753,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -3848,9 +3848,17 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -3860,9 +3868,17 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -3874,11 +3890,15 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -3888,11 +3908,7 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -3903,16 +3919,8 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -3923,16 +3931,8 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -3943,11 +3943,7 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA A [LTT1]</t>
@@ -3963,11 +3959,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA A [LTT1]</t>
@@ -3983,15 +3975,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>LAB. QUÍMICA [LQU3]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -4003,26 +3995,18 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU3]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -4031,26 +4015,18 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU3]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -4059,26 +4035,18 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU3]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -4088,9 +4056,17 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -4100,9 +4076,17 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -4112,9 +4096,17 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -4124,9 +4116,17 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -4136,9 +4136,17 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -4148,9 +4156,17 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -4160,9 +4176,17 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -4172,9 +4196,17 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -4247,17 +4279,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -4267,17 +4291,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -4287,17 +4303,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -4307,17 +4315,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -4410,9 +4410,17 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -4422,9 +4430,17 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -4434,11 +4450,15 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -4452,11 +4472,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -4465,18 +4481,10 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -4485,18 +4493,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -4505,23 +4505,15 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4529,23 +4521,15 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4553,23 +4537,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4577,23 +4553,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4601,23 +4569,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4625,23 +4585,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4650,9 +4602,21 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU5]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -4662,9 +4626,21 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU5]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -4674,9 +4650,21 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU5]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -4686,9 +4674,21 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU5]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -4697,18 +4697,18 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -4717,18 +4717,18 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -4737,18 +4737,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -4757,18 +4757,18 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -4972,9 +4972,17 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -4984,9 +4992,17 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -4998,11 +5014,15 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -5012,11 +5032,7 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -5027,16 +5043,8 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -5047,16 +5055,8 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -5067,11 +5067,7 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA A [LTT1]</t>
@@ -5079,11 +5075,7 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5091,11 +5083,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU8]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA A [LTT1]</t>
@@ -5103,11 +5091,7 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5117,21 +5101,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU2]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5141,21 +5121,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU2]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5165,21 +5141,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU2]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5189,21 +5161,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU2]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5212,9 +5180,17 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -5224,9 +5200,17 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -5236,9 +5220,17 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -5248,9 +5240,17 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -5259,18 +5259,18 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -5279,18 +5279,18 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -5299,18 +5299,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -5319,18 +5319,18 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -5560,11 +5560,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -5574,11 +5570,15 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -5590,11 +5590,15 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -5606,11 +5610,15 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
+          <t>QUÍMICA [QUI4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -5622,18 +5630,14 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5642,18 +5646,14 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5661,27 +5661,19 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5689,27 +5681,19 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5717,27 +5701,19 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5745,27 +5721,19 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI6]</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5774,9 +5742,17 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -5786,9 +5762,17 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -5798,9 +5782,17 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -5810,9 +5802,17 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL4]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -5821,18 +5821,18 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -5841,18 +5841,18 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -5861,18 +5861,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -5881,18 +5881,18 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
